--- a/Tasks_to_be_completed.xlsx
+++ b/Tasks_to_be_completed.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Advance Data Science\Midterm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sweta\US-Housing-Data-Wrangling-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="2" r:id="rId1"/>
     <sheet name="Problem 2" sheetId="1" r:id="rId2"/>
+    <sheet name="Problem 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Tasks</t>
   </si>
@@ -130,6 +131,18 @@
   </si>
   <si>
     <t>Logic</t>
+  </si>
+  <si>
+    <t>Aggregate Sample files</t>
+  </si>
+  <si>
+    <t>Builds a Logistic Regression model for the Current Loan Deliquency status using Q12005 data as training data (col 4)  , Note anytime col 4 is &gt; 0, add a new variable as Delinquent. Use this variable as your “Y” variable. IGNORE COL 4  AND DON’T USE IT IN YOUR MODEL</t>
+  </si>
+  <si>
+    <t>Computes ROC curve and Confusion matrices for training and testing datasets</t>
+  </si>
+  <si>
+    <t>Repeat this using Random Forest, Neural Network models and SVN algorithms.</t>
   </si>
 </sst>
 </file>
@@ -145,7 +158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +177,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -177,13 +196,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,16 +518,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -544,66 +564,71 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -617,7 +642,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection sqref="A1:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,7 +716,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -727,6 +752,121 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="53.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
